--- a/biology/Botanique/Parc_Forselius/Parc_Forselius.xlsx
+++ b/biology/Botanique/Parc_Forselius/Parc_Forselius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Forselius (estonien : Forseliuse park) est un parc du quartier Karlova de Tartu en Estonie.
 </t>
@@ -511,14 +523,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé en bordure de la rue Tähe tänav. 
-La superficie du parc est de 1,9 hectare[1]. 
+La superficie du parc est de 1,9 hectare. 
 L'école Forselius est située en face du parc.
 Dans le parc Forselius, il y a des tilavecs à petites feuilles dont le diamètre de tronc mesure plus de trois mètres. 
 Le tilleul le plus gros du parc Forselius a environ 240 ans, tandis que le plus ancien, âgé d'environ 300 ans, s'est avéré être l'un des tilleuls les plus fins de ce parc. 
-Ce tilleul le plus ancien remonte donc à l'époque du premier séminaire d'enseignants estonien ou Séminaire Forselius situé a l’emplacement du parc, qui a commencé ses travaux sous la direction de Bengt Gottfried Forselius en 1684[2].
+Ce tilleul le plus ancien remonte donc à l'époque du premier séminaire d'enseignants estonien ou Séminaire Forselius situé a l’emplacement du parc, qui a commencé ses travaux sous la direction de Bengt Gottfried Forselius en 1684.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, le manoir de l'évêque (Bischofshof) entourait le parc.
-Aujourd'hui, le manoir peut être considéré comme un objet archéologique, car rien des anciens bâtiments du manoir entourant l'actuel parc Forselius n'a été conservé[3].
-En 1934, le maire de Tartu, le général Aleksander Tõnisson, y fit ériger une pierre commémorative en l'honneur du 250ème anniversaire du Séminaire Forselius[4].
+Aujourd'hui, le manoir peut être considéré comme un objet archéologique, car rien des anciens bâtiments du manoir entourant l'actuel parc Forselius n'a été conservé.
+En 1934, le maire de Tartu, le général Aleksander Tõnisson, y fit ériger une pierre commémorative en l'honneur du 250ème anniversaire du Séminaire Forselius.
 </t>
         </is>
       </c>
